--- a/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
+++ b/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EPOCH 2000" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="343">
   <si>
     <t>MLP</t>
   </si>
@@ -516,6 +516,546 @@
   </si>
   <si>
     <t>0.6339460974027235</t>
+  </si>
+  <si>
+    <t>0.6084830619539978</t>
+  </si>
+  <si>
+    <t>0.6415823996957994</t>
+  </si>
+  <si>
+    <t>0.6351857308197403</t>
+  </si>
+  <si>
+    <t>0.6373321510669503</t>
+  </si>
+  <si>
+    <t>0.6387552984396379</t>
+  </si>
+  <si>
+    <t>0.642839875803084</t>
+  </si>
+  <si>
+    <t>0.648228338798102</t>
+  </si>
+  <si>
+    <t>0.6525251097168348</t>
+  </si>
+  <si>
+    <t>0.6373108306081766</t>
+  </si>
+  <si>
+    <t>0.6272599961008799</t>
+  </si>
+  <si>
+    <t>0.6281764583003338</t>
+  </si>
+  <si>
+    <t>0.6245558130901316</t>
+  </si>
+  <si>
+    <t>0.6256742014622743</t>
+  </si>
+  <si>
+    <t>0.625686727369939</t>
+  </si>
+  <si>
+    <t>0.6298674357923486</t>
+  </si>
+  <si>
+    <t>0.629084387846097</t>
+  </si>
+  <si>
+    <t>0.6270788519672987</t>
+  </si>
+  <si>
+    <t>0.6265248400024799</t>
+  </si>
+  <si>
+    <t>0.6293451198626892</t>
+  </si>
+  <si>
+    <t>0.630014036570739</t>
+  </si>
+  <si>
+    <t>0.6306520823319005</t>
+  </si>
+  <si>
+    <t>0.6304654484102576</t>
+  </si>
+  <si>
+    <t>0.6289324499062374</t>
+  </si>
+  <si>
+    <t>0.6284381099110843</t>
+  </si>
+  <si>
+    <t>0.6285498480745721</t>
+  </si>
+  <si>
+    <t>0.6296789124013136</t>
+  </si>
+  <si>
+    <t>0.6287289825367848</t>
+  </si>
+  <si>
+    <t>0.6301235580773303</t>
+  </si>
+  <si>
+    <t>0.6288864668214715</t>
+  </si>
+  <si>
+    <t>0.6273378731684954</t>
+  </si>
+  <si>
+    <t>0.6429779358173844</t>
+  </si>
+  <si>
+    <t>0.6415746307810258</t>
+  </si>
+  <si>
+    <t>0.618692365625073</t>
+  </si>
+  <si>
+    <t>0.6136510397385199</t>
+  </si>
+  <si>
+    <t>0.6040183977091265</t>
+  </si>
+  <si>
+    <t>0.6018690550107734</t>
+  </si>
+  <si>
+    <t>0.6035936754981805</t>
+  </si>
+  <si>
+    <t>0.602320748265772</t>
+  </si>
+  <si>
+    <t>0.6012912656378969</t>
+  </si>
+  <si>
+    <t>0.6001964666843291</t>
+  </si>
+  <si>
+    <t>0.599016027282161</t>
+  </si>
+  <si>
+    <t>0.5995999106030363</t>
+  </si>
+  <si>
+    <t>0.6005191988575032</t>
+  </si>
+  <si>
+    <t>0.5985863310511789</t>
+  </si>
+  <si>
+    <t>0.5987718270736532</t>
+  </si>
+  <si>
+    <t>0.6018873049860762</t>
+  </si>
+  <si>
+    <t>0.6048482107158606</t>
+  </si>
+  <si>
+    <t>0.6072903877823085</t>
+  </si>
+  <si>
+    <t>0.6061248735686572</t>
+  </si>
+  <si>
+    <t>0.602718493839696</t>
+  </si>
+  <si>
+    <t>0.6021228431338933</t>
+  </si>
+  <si>
+    <t>0.6030980762074927</t>
+  </si>
+  <si>
+    <t>0.6036781964598709</t>
+  </si>
+  <si>
+    <t>0.602706752699808</t>
+  </si>
+  <si>
+    <t>0.6024110517550241</t>
+  </si>
+  <si>
+    <t>0.6021903172852071</t>
+  </si>
+  <si>
+    <t>0.6006090889972457</t>
+  </si>
+  <si>
+    <t>0.6003265305147011</t>
+  </si>
+  <si>
+    <t>0.6013899385008611</t>
+  </si>
+  <si>
+    <t>0.6033214907584985</t>
+  </si>
+  <si>
+    <t>0.6994575126074607</t>
+  </si>
+  <si>
+    <t>0.6608951557457906</t>
+  </si>
+  <si>
+    <t>0.6289318128197772</t>
+  </si>
+  <si>
+    <t>0.62067280361507</t>
+  </si>
+  <si>
+    <t>0.6285194153341864</t>
+  </si>
+  <si>
+    <t>0.6316718021385308</t>
+  </si>
+  <si>
+    <t>0.6313185014178903</t>
+  </si>
+  <si>
+    <t>0.6264813990261009</t>
+  </si>
+  <si>
+    <t>0.6190251894242808</t>
+  </si>
+  <si>
+    <t>0.618285331589919</t>
+  </si>
+  <si>
+    <t>0.6181165327926789</t>
+  </si>
+  <si>
+    <t>0.6186884332792784</t>
+  </si>
+  <si>
+    <t>0.6193975402854528</t>
+  </si>
+  <si>
+    <t>0.6226180736524558</t>
+  </si>
+  <si>
+    <t>0.6216639600887115</t>
+  </si>
+  <si>
+    <t>0.6219450547813665</t>
+  </si>
+  <si>
+    <t>0.6181599953107384</t>
+  </si>
+  <si>
+    <t>0.6174469428504008</t>
+  </si>
+  <si>
+    <t>0.6208548284512159</t>
+  </si>
+  <si>
+    <t>0.6233665352366241</t>
+  </si>
+  <si>
+    <t>0.6223743771502472</t>
+  </si>
+  <si>
+    <t>0.624139886496057</t>
+  </si>
+  <si>
+    <t>0.6238370908969542</t>
+  </si>
+  <si>
+    <t>0.6222064117548922</t>
+  </si>
+  <si>
+    <t>0.6235097281326208</t>
+  </si>
+  <si>
+    <t>0.6259729802786562</t>
+  </si>
+  <si>
+    <t>0.6267872622205092</t>
+  </si>
+  <si>
+    <t>0.6273885476627318</t>
+  </si>
+  <si>
+    <t>0.6294019774396954</t>
+  </si>
+  <si>
+    <t>0.6309144070103221</t>
+  </si>
+  <si>
+    <t>0.5347879803558264</t>
+  </si>
+  <si>
+    <t>0.5477842439191505</t>
+  </si>
+  <si>
+    <t>0.5224174128053345</t>
+  </si>
+  <si>
+    <t>0.5283829321313729</t>
+  </si>
+  <si>
+    <t>0.5305506035755733</t>
+  </si>
+  <si>
+    <t>0.533464394035591</t>
+  </si>
+  <si>
+    <t>0.5415760729499544</t>
+  </si>
+  <si>
+    <t>0.5452713798959951</t>
+  </si>
+  <si>
+    <t>0.5452500111284091</t>
+  </si>
+  <si>
+    <t>0.5431333412511125</t>
+  </si>
+  <si>
+    <t>0.5441322818834295</t>
+  </si>
+  <si>
+    <t>0.5415458395150143</t>
+  </si>
+  <si>
+    <t>0.5437137633761517</t>
+  </si>
+  <si>
+    <t>0.5398593627734222</t>
+  </si>
+  <si>
+    <t>0.5368695421536706</t>
+  </si>
+  <si>
+    <t>0.5383183304674183</t>
+  </si>
+  <si>
+    <t>0.5399044737165867</t>
+  </si>
+  <si>
+    <t>0.5392097599890866</t>
+  </si>
+  <si>
+    <t>0.5396905083066413</t>
+  </si>
+  <si>
+    <t>0.5415318829975831</t>
+  </si>
+  <si>
+    <t>0.5415928020913858</t>
+  </si>
+  <si>
+    <t>0.540833406110421</t>
+  </si>
+  <si>
+    <t>0.5413146984428666</t>
+  </si>
+  <si>
+    <t>0.5424727015026741</t>
+  </si>
+  <si>
+    <t>0.542018873954824</t>
+  </si>
+  <si>
+    <t>0.5416052831620612</t>
+  </si>
+  <si>
+    <t>0.541441848183354</t>
+  </si>
+  <si>
+    <t>0.54187727665577</t>
+  </si>
+  <si>
+    <t>0.5429848101145789</t>
+  </si>
+  <si>
+    <t>0.5448865264298184</t>
+  </si>
+  <si>
+    <t>0.6051874132950791</t>
+  </si>
+  <si>
+    <t>0.6273480540999347</t>
+  </si>
+  <si>
+    <t>0.62280061804895</t>
+  </si>
+  <si>
+    <t>0.6253796877209629</t>
+  </si>
+  <si>
+    <t>0.6317015130171184</t>
+  </si>
+  <si>
+    <t>0.6311708698751888</t>
+  </si>
+  <si>
+    <t>0.6224195749128536</t>
+  </si>
+  <si>
+    <t>0.6175042293817595</t>
+  </si>
+  <si>
+    <t>0.6132044705489184</t>
+  </si>
+  <si>
+    <t>0.6114264406603824</t>
+  </si>
+  <si>
+    <t>0.6071128772536354</t>
+  </si>
+  <si>
+    <t>0.6087226536681785</t>
+  </si>
+  <si>
+    <t>0.6113583055058184</t>
+  </si>
+  <si>
+    <t>0.6088334249507403</t>
+  </si>
+  <si>
+    <t>0.6051217066678493</t>
+  </si>
+  <si>
+    <t>0.606403282320496</t>
+  </si>
+  <si>
+    <t>0.605445058262417</t>
+  </si>
+  <si>
+    <t>0.6030174207658068</t>
+  </si>
+  <si>
+    <t>0.6020159055860145</t>
+  </si>
+  <si>
+    <t>0.6012157608128573</t>
+  </si>
+  <si>
+    <t>0.6011686797713749</t>
+  </si>
+  <si>
+    <t>0.5999800960734436</t>
+  </si>
+  <si>
+    <t>0.5983807703738739</t>
+  </si>
+  <si>
+    <t>0.5958155305531049</t>
+  </si>
+  <si>
+    <t>0.5947529770141378</t>
+  </si>
+  <si>
+    <t>0.5926528618214804</t>
+  </si>
+  <si>
+    <t>0.593532212943096</t>
+  </si>
+  <si>
+    <t>0.5941770786012422</t>
+  </si>
+  <si>
+    <t>0.5938646758900303</t>
+  </si>
+  <si>
+    <t>0.5931877207501535</t>
+  </si>
+  <si>
+    <t>0.6619927858531844</t>
+  </si>
+  <si>
+    <t>0.674114591576384</t>
+  </si>
+  <si>
+    <t>0.64494900838286</t>
+  </si>
+  <si>
+    <t>0.6345085315568035</t>
+  </si>
+  <si>
+    <t>0.6136011629781748</t>
+  </si>
+  <si>
+    <t>0.6029824483026386</t>
+  </si>
+  <si>
+    <t>0.59968735934289</t>
+  </si>
+  <si>
+    <t>0.5965103295861264</t>
+  </si>
+  <si>
+    <t>0.6017973838633731</t>
+  </si>
+  <si>
+    <t>0.6050041256013957</t>
+  </si>
+  <si>
+    <t>0.6056173566530397</t>
+  </si>
+  <si>
+    <t>0.6039167926205655</t>
+  </si>
+  <si>
+    <t>0.6052507095177202</t>
+  </si>
+  <si>
+    <t>0.6093203712355195</t>
+  </si>
+  <si>
+    <t>0.6085348922905711</t>
+  </si>
+  <si>
+    <t>0.6071199206998218</t>
+  </si>
+  <si>
+    <t>0.6093253210606311</t>
+  </si>
+  <si>
+    <t>0.6099563094923475</t>
+  </si>
+  <si>
+    <t>0.6099833578370082</t>
+  </si>
+  <si>
+    <t>0.6085233674422084</t>
+  </si>
+  <si>
+    <t>0.6083987582418651</t>
+  </si>
+  <si>
+    <t>0.605797711876456</t>
+  </si>
+  <si>
+    <t>0.6076774858219953</t>
+  </si>
+  <si>
+    <t>0.6089559748555069</t>
+  </si>
+  <si>
+    <t>0.6089730651062175</t>
+  </si>
+  <si>
+    <t>0.6103761356327697</t>
+  </si>
+  <si>
+    <t>0.6100130005589974</t>
+  </si>
+  <si>
+    <t>0.6079831488419971</t>
+  </si>
+  <si>
+    <t>0.6090819951496934</t>
+  </si>
+  <si>
+    <t>0.6078758750948468</t>
   </si>
 </sst>
 </file>
@@ -525,7 +1065,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +1089,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,6 +1140,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C40"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +2014,9 @@
       <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,6 +2029,9 @@
       <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,6 +2044,9 @@
       <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,6 +2059,9 @@
       <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,6 +2074,9 @@
       <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1527,6 +2089,9 @@
       <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1539,6 +2104,9 @@
       <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,6 +2119,9 @@
       <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1563,6 +2134,9 @@
       <c r="C18" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,6 +2149,9 @@
       <c r="C19" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,6 +2164,9 @@
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1599,6 +2179,9 @@
       <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,6 +2194,9 @@
       <c r="C22" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,6 +2209,9 @@
       <c r="C23" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1635,6 +2224,9 @@
       <c r="C24" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,6 +2239,9 @@
       <c r="C25" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,6 +2254,9 @@
       <c r="C26" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,6 +2269,9 @@
       <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,6 +2284,9 @@
       <c r="C28" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1695,6 +2299,9 @@
       <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,6 +2314,9 @@
       <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1719,6 +2329,9 @@
       <c r="C31" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,6 +2344,9 @@
       <c r="C32" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="D32" t="s">
+        <v>185</v>
+      </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,6 +2359,9 @@
       <c r="C33" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,6 +2374,9 @@
       <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,6 +2389,9 @@
       <c r="C35" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D35" t="s">
+        <v>188</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,6 +2404,9 @@
       <c r="C36" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,6 +2419,9 @@
       <c r="C37" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="D37" t="s">
+        <v>190</v>
+      </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,6 +2434,9 @@
       <c r="C38" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,6 +2449,9 @@
       <c r="C39" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,6 +2463,9 @@
       </c>
       <c r="C40" s="6">
         <v>3637003</v>
+      </c>
+      <c r="D40">
+        <v>8773643</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +2479,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E40"/>
+      <selection activeCell="B10" sqref="B10:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,185 +2547,278 @@
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="B10" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
+      <c r="B13" s="11" t="s">
+        <v>196</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
+      <c r="B14" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
+      <c r="B15" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
+      <c r="B16" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
+      <c r="B17" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
+      <c r="B18" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
+      <c r="B19" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
+      <c r="B20" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
+      <c r="B21" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
+      <c r="B22" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
+      <c r="B23" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
+      <c r="B24" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
+      <c r="B25" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
+      <c r="B26" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
+      <c r="B27" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
+      <c r="B28" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
+      <c r="B29" s="11" t="s">
+        <v>212</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
+      <c r="B30" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
+      <c r="B31" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
+      <c r="B32" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
+      <c r="B33" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
+      <c r="B34" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
+      <c r="B35" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>27</v>
       </c>
+      <c r="B36" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
+      <c r="B37" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29</v>
       </c>
+      <c r="B38" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30</v>
       </c>
+      <c r="B39" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
+      </c>
+      <c r="B40" s="11">
+        <v>949310</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -2099,7 +2832,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E40"/>
+      <selection activeCell="D10" sqref="D10:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,185 +2900,527 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="B12" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="B19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="B20" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="B21" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="B22" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="B23" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="B24" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="B25" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="B26" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="B27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="B28" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="B29" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="B30" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="B31" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="B32" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="B33" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="B34" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="B35" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>27</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="B36" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="B37" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="B38" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="B39" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
+      </c>
+      <c r="B40" s="11">
+        <v>196676</v>
+      </c>
+      <c r="C40" s="11">
+        <v>368761</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1162724</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2008881</v>
       </c>
     </row>
   </sheetData>

--- a/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
+++ b/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EPOCH 2000" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="433">
   <si>
     <t>MLP</t>
   </si>
@@ -1056,6 +1056,276 @@
   </si>
   <si>
     <t>0.6078758750948468</t>
+  </si>
+  <si>
+    <t>0.6534628734699662</t>
+  </si>
+  <si>
+    <t>0.6386064691388976</t>
+  </si>
+  <si>
+    <t>0.6409086810141011</t>
+  </si>
+  <si>
+    <t>0.6454658111586362</t>
+  </si>
+  <si>
+    <t>0.6530398698843844</t>
+  </si>
+  <si>
+    <t>0.6554096109809846</t>
+  </si>
+  <si>
+    <t>0.6614120873668566</t>
+  </si>
+  <si>
+    <t>0.6674986148341142</t>
+  </si>
+  <si>
+    <t>0.6702028818203275</t>
+  </si>
+  <si>
+    <t>0.6692253464157837</t>
+  </si>
+  <si>
+    <t>0.6630193272148296</t>
+  </si>
+  <si>
+    <t>0.6619142848801282</t>
+  </si>
+  <si>
+    <t>0.6655656467075357</t>
+  </si>
+  <si>
+    <t>0.6649501621593883</t>
+  </si>
+  <si>
+    <t>0.6648179772448796</t>
+  </si>
+  <si>
+    <t>0.6606298293394102</t>
+  </si>
+  <si>
+    <t>0.6613665656516378</t>
+  </si>
+  <si>
+    <t>0.6622524834859778</t>
+  </si>
+  <si>
+    <t>0.6631950898462067</t>
+  </si>
+  <si>
+    <t>0.6628167778849968</t>
+  </si>
+  <si>
+    <t>0.6620956301365772</t>
+  </si>
+  <si>
+    <t>0.6637537256070067</t>
+  </si>
+  <si>
+    <t>0.6636214050301602</t>
+  </si>
+  <si>
+    <t>0.6634539104403221</t>
+  </si>
+  <si>
+    <t>0.6638742001270932</t>
+  </si>
+  <si>
+    <t>0.6642596609580231</t>
+  </si>
+  <si>
+    <t>0.6634990283403299</t>
+  </si>
+  <si>
+    <t>0.6622560033551135</t>
+  </si>
+  <si>
+    <t>0.6635121016727933</t>
+  </si>
+  <si>
+    <t>0.6640249896585411</t>
+  </si>
+  <si>
+    <t>0.6378494477484524</t>
+  </si>
+  <si>
+    <t>0.6265994076913278</t>
+  </si>
+  <si>
+    <t>0.6359437026083652</t>
+  </si>
+  <si>
+    <t>0.6269270379275224</t>
+  </si>
+  <si>
+    <t>0.6242492574607267</t>
+  </si>
+  <si>
+    <t>0.6197011634778583</t>
+  </si>
+  <si>
+    <t>0.6166971758935343</t>
+  </si>
+  <si>
+    <t>0.6232567293037738</t>
+  </si>
+  <si>
+    <t>0.6251246482741677</t>
+  </si>
+  <si>
+    <t>0.6257083991776724</t>
+  </si>
+  <si>
+    <t>0.6248188562725161</t>
+  </si>
+  <si>
+    <t>0.6251385080249425</t>
+  </si>
+  <si>
+    <t>0.6253926434079136</t>
+  </si>
+  <si>
+    <t>0.6217549982726808</t>
+  </si>
+  <si>
+    <t>0.620306693968206</t>
+  </si>
+  <si>
+    <t>0.6201067672865745</t>
+  </si>
+  <si>
+    <t>0.6162144620825639</t>
+  </si>
+  <si>
+    <t>0.6129003857433784</t>
+  </si>
+  <si>
+    <t>0.6100128183547184</t>
+  </si>
+  <si>
+    <t>0.610814229401603</t>
+  </si>
+  <si>
+    <t>0.6108454937690151</t>
+  </si>
+  <si>
+    <t>0.6114372167263651</t>
+  </si>
+  <si>
+    <t>0.6138949373914551</t>
+  </si>
+  <si>
+    <t>0.6138283651892934</t>
+  </si>
+  <si>
+    <t>0.6131245944671351</t>
+  </si>
+  <si>
+    <t>0.6124270214387287</t>
+  </si>
+  <si>
+    <t>0.6133802469997245</t>
+  </si>
+  <si>
+    <t>0.6132269190362578</t>
+  </si>
+  <si>
+    <t>0.6117060175854727</t>
+  </si>
+  <si>
+    <t>0.6108231726659137</t>
+  </si>
+  <si>
+    <t>0.5632570430012549</t>
+  </si>
+  <si>
+    <t>0.6406937678935402</t>
+  </si>
+  <si>
+    <t>0.6324933472593264</t>
+  </si>
+  <si>
+    <t>0.6181872707978567</t>
+  </si>
+  <si>
+    <t>0.6274095294390627</t>
+  </si>
+  <si>
+    <t>0.634016611331544</t>
+  </si>
+  <si>
+    <t>0.6323522129407311</t>
+  </si>
+  <si>
+    <t>0.633487741709431</t>
+  </si>
+  <si>
+    <t>0.6305735903523014</t>
+  </si>
+  <si>
+    <t>0.6304137631892954</t>
+  </si>
+  <si>
+    <t>0.6296968476236702</t>
+  </si>
+  <si>
+    <t>0.6306725183506974</t>
+  </si>
+  <si>
+    <t>0.6317267621461367</t>
+  </si>
+  <si>
+    <t>0.6300343774979392</t>
+  </si>
+  <si>
+    <t>0.630580073698152</t>
+  </si>
+  <si>
+    <t>0.6286478841977076</t>
+  </si>
+  <si>
+    <t>0.6265954957265405</t>
+  </si>
+  <si>
+    <t>0.6272614276486138</t>
+  </si>
+  <si>
+    <t>0.6275880669258332</t>
+  </si>
+  <si>
+    <t>0.6265231272513763</t>
+  </si>
+  <si>
+    <t>0.6249017291148815</t>
+  </si>
+  <si>
+    <t>0.6226749619020686</t>
+  </si>
+  <si>
+    <t>0.6214628989447992</t>
+  </si>
+  <si>
+    <t>0.6208260520257392</t>
+  </si>
+  <si>
+    <t>0.6205476297123602</t>
+  </si>
+  <si>
+    <t>0.621092229770343</t>
+  </si>
+  <si>
+    <t>0.6210333050462281</t>
+  </si>
+  <si>
+    <t>0.6216983476122571</t>
+  </si>
+  <si>
+    <t>0.6211569618316546</t>
+  </si>
+  <si>
+    <t>0.6226264441422142</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D39"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,8 +1702,7 @@
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="8" customWidth="1"/>
+    <col min="4" max="5" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,6 +1775,9 @@
       <c r="D10" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="E10" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1520,6 +1792,9 @@
       <c r="D11" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="E11" s="8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1534,6 +1809,9 @@
       <c r="D12" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="E12" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1548,6 +1826,9 @@
       <c r="D13" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="E13" s="8" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1562,6 +1843,9 @@
       <c r="D14" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="E14" s="8" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1576,6 +1860,9 @@
       <c r="D15" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="E15" s="8" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1590,8 +1877,11 @@
       <c r="D16" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1604,8 +1894,11 @@
       <c r="D17" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1618,8 +1911,11 @@
       <c r="D18" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1632,8 +1928,11 @@
       <c r="D19" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1646,8 +1945,11 @@
       <c r="D20" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1660,8 +1962,11 @@
       <c r="D21" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1674,8 +1979,11 @@
       <c r="D22" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1688,8 +1996,11 @@
       <c r="D23" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1702,8 +2013,11 @@
       <c r="D24" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
@@ -1716,8 +2030,11 @@
       <c r="D25" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -1730,8 +2047,11 @@
       <c r="D26" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -1744,8 +2064,11 @@
       <c r="D27" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -1758,8 +2081,11 @@
       <c r="D28" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1772,8 +2098,11 @@
       <c r="D29" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1786,8 +2115,11 @@
       <c r="D30" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
@@ -1800,8 +2132,11 @@
       <c r="D31" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
@@ -1814,8 +2149,11 @@
       <c r="D32" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -1828,8 +2166,11 @@
       <c r="D33" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -1842,8 +2183,11 @@
       <c r="D34" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -1856,8 +2200,11 @@
       <c r="D35" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>27</v>
       </c>
@@ -1870,8 +2217,11 @@
       <c r="D36" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -1884,8 +2234,11 @@
       <c r="D37" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29</v>
       </c>
@@ -1898,8 +2251,11 @@
       <c r="D38" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30</v>
       </c>
@@ -1912,8 +2268,11 @@
       <c r="D39" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1925,6 +2284,9 @@
       </c>
       <c r="D40" s="8">
         <v>17055606</v>
+      </c>
+      <c r="E40" s="8">
+        <v>34647963</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D40"/>
     </sheetView>
   </sheetViews>
@@ -2478,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,6 +2912,12 @@
       <c r="B10" s="11" t="s">
         <v>193</v>
       </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" t="s">
+        <v>403</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,6 +2927,12 @@
       <c r="B11" s="11" t="s">
         <v>194</v>
       </c>
+      <c r="C11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" t="s">
+        <v>404</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,6 +2942,12 @@
       <c r="B12" s="11" t="s">
         <v>195</v>
       </c>
+      <c r="C12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" t="s">
+        <v>405</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,6 +2957,12 @@
       <c r="B13" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" t="s">
+        <v>406</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2586,6 +2972,12 @@
       <c r="B14" s="11" t="s">
         <v>197</v>
       </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>407</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,6 +2987,12 @@
       <c r="B15" s="11" t="s">
         <v>198</v>
       </c>
+      <c r="C15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" t="s">
+        <v>408</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,6 +3002,12 @@
       <c r="B16" s="11" t="s">
         <v>199</v>
       </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
+        <v>409</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,6 +3017,12 @@
       <c r="B17" s="11" t="s">
         <v>200</v>
       </c>
+      <c r="C17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" t="s">
+        <v>410</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,6 +3032,12 @@
       <c r="B18" s="11" t="s">
         <v>201</v>
       </c>
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,6 +3047,12 @@
       <c r="B19" s="11" t="s">
         <v>202</v>
       </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>412</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,6 +3062,12 @@
       <c r="B20" s="11" t="s">
         <v>203</v>
       </c>
+      <c r="C20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" t="s">
+        <v>413</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2649,6 +3077,12 @@
       <c r="B21" s="11" t="s">
         <v>204</v>
       </c>
+      <c r="C21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" t="s">
+        <v>414</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,6 +3092,12 @@
       <c r="B22" s="11" t="s">
         <v>205</v>
       </c>
+      <c r="C22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" t="s">
+        <v>415</v>
+      </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,6 +3107,12 @@
       <c r="B23" s="11" t="s">
         <v>206</v>
       </c>
+      <c r="C23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" t="s">
+        <v>416</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,6 +3122,12 @@
       <c r="B24" s="11" t="s">
         <v>207</v>
       </c>
+      <c r="C24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" t="s">
+        <v>417</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,6 +3137,12 @@
       <c r="B25" s="11" t="s">
         <v>208</v>
       </c>
+      <c r="C25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" t="s">
+        <v>418</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2694,6 +3152,12 @@
       <c r="B26" s="11" t="s">
         <v>209</v>
       </c>
+      <c r="C26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" t="s">
+        <v>419</v>
+      </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,6 +3167,12 @@
       <c r="B27" s="11" t="s">
         <v>210</v>
       </c>
+      <c r="C27" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" t="s">
+        <v>420</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2712,6 +3182,12 @@
       <c r="B28" s="11" t="s">
         <v>211</v>
       </c>
+      <c r="C28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" t="s">
+        <v>421</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,6 +3197,12 @@
       <c r="B29" s="11" t="s">
         <v>212</v>
       </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" t="s">
+        <v>422</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,6 +3212,12 @@
       <c r="B30" s="11" t="s">
         <v>213</v>
       </c>
+      <c r="C30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" t="s">
+        <v>423</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,6 +3227,12 @@
       <c r="B31" s="11" t="s">
         <v>214</v>
       </c>
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" t="s">
+        <v>424</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,6 +3242,12 @@
       <c r="B32" s="11" t="s">
         <v>215</v>
       </c>
+      <c r="C32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" t="s">
+        <v>425</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,6 +3257,12 @@
       <c r="B33" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="C33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" t="s">
+        <v>426</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,6 +3272,12 @@
       <c r="B34" s="11" t="s">
         <v>217</v>
       </c>
+      <c r="C34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" t="s">
+        <v>427</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,6 +3287,12 @@
       <c r="B35" s="11" t="s">
         <v>218</v>
       </c>
+      <c r="C35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,6 +3302,12 @@
       <c r="B36" s="11" t="s">
         <v>219</v>
       </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>429</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,6 +3317,12 @@
       <c r="B37" s="11" t="s">
         <v>220</v>
       </c>
+      <c r="C37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" t="s">
+        <v>430</v>
+      </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,6 +3332,12 @@
       <c r="B38" s="11" t="s">
         <v>221</v>
       </c>
+      <c r="C38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,6 +3347,12 @@
       <c r="B39" s="11" t="s">
         <v>222</v>
       </c>
+      <c r="C39" t="s">
+        <v>402</v>
+      </c>
+      <c r="D39" t="s">
+        <v>432</v>
+      </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,6 +3361,12 @@
       </c>
       <c r="B40" s="11">
         <v>949310</v>
+      </c>
+      <c r="C40">
+        <v>1730926</v>
+      </c>
+      <c r="D40">
+        <v>4421304</v>
       </c>
       <c r="E40" s="6"/>
     </row>

--- a/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
+++ b/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="EPOCH 2000" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="478">
   <si>
     <t>MLP</t>
   </si>
@@ -1326,6 +1326,141 @@
   </si>
   <si>
     <t>0.6226264441422142</t>
+  </si>
+  <si>
+    <t>0.6575223125241288</t>
+  </si>
+  <si>
+    <t>0.678987260735117</t>
+  </si>
+  <si>
+    <t>0.670235285508149</t>
+  </si>
+  <si>
+    <t>0.6715576015268205</t>
+  </si>
+  <si>
+    <t>0.6653304996278195</t>
+  </si>
+  <si>
+    <t>0.6699948667945417</t>
+  </si>
+  <si>
+    <t>0.6665579457169166</t>
+  </si>
+  <si>
+    <t>0.6635286892127441</t>
+  </si>
+  <si>
+    <t>0.6568711500692895</t>
+  </si>
+  <si>
+    <t>0.6553379047874499</t>
+  </si>
+  <si>
+    <t>0.6585223299203176</t>
+  </si>
+  <si>
+    <t>0.659625299219963</t>
+  </si>
+  <si>
+    <t>0.6625627859150467</t>
+  </si>
+  <si>
+    <t>0.6626142834234555</t>
+  </si>
+  <si>
+    <t>0.6624401527714917</t>
+  </si>
+  <si>
+    <t>0.6636882437774637</t>
+  </si>
+  <si>
+    <t>0.6642598960799211</t>
+  </si>
+  <si>
+    <t>0.6653521286610955</t>
+  </si>
+  <si>
+    <t>0.6659775537482201</t>
+  </si>
+  <si>
+    <t>0.6654064896399982</t>
+  </si>
+  <si>
+    <t>0.6655649623455199</t>
+  </si>
+  <si>
+    <t>0.6641032713572624</t>
+  </si>
+  <si>
+    <t>0.6649408418472541</t>
+  </si>
+  <si>
+    <t>0.6664285347295243</t>
+  </si>
+  <si>
+    <t>0.667146685733315</t>
+  </si>
+  <si>
+    <t>0.6665449189244737</t>
+  </si>
+  <si>
+    <t>0.6664018174244353</t>
+  </si>
+  <si>
+    <t>0.6657666797242328</t>
+  </si>
+  <si>
+    <t>0.6655773088381444</t>
+  </si>
+  <si>
+    <t>0.6655325374440526</t>
+  </si>
+  <si>
+    <t>0.66401 ± 0.002654374</t>
+  </si>
+  <si>
+    <t>0.6231906 ± 0.004857399</t>
+  </si>
+  <si>
+    <t>0.6362926 ± 0.003138975</t>
+  </si>
+  <si>
+    <t>0.6606704 ± 0.002673781</t>
+  </si>
+  <si>
+    <t>0.6325471 ± 0.003839437</t>
+  </si>
+  <si>
+    <t>0.6221072 ± 0.003158513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6312435 ± 0.002882756</t>
+  </si>
+  <si>
+    <t>0.6057134 ± 0.003852152</t>
+  </si>
+  <si>
+    <t>0.6191404 ± 0.002700183</t>
+  </si>
+  <si>
+    <t>0.6250077 ± 0.004573922</t>
+  </si>
+  <si>
+    <t>0.6648127 ± 0.001649059</t>
+  </si>
+  <si>
+    <t>0.5399474 ± 0.0019219</t>
+  </si>
+  <si>
+    <t>0.6074967 ± 0.004229522</t>
+  </si>
+  <si>
+    <t>0.613261 ± 0.006265061</t>
+  </si>
+  <si>
+    <t>0.6274683 ± 0.005644346</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,6 +1500,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1386,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1411,6 +1552,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1691,18 +1835,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2289,25 +2433,39 @@
         <v>34647963</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2828,6 +2986,17 @@
       </c>
       <c r="D40">
         <v>8773643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2838,16 +3007,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,7 +3087,9 @@
       <c r="D10" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2933,7 +3104,9 @@
       <c r="D11" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2948,7 +3121,9 @@
       <c r="D12" t="s">
         <v>405</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2963,7 +3138,9 @@
       <c r="D13" t="s">
         <v>406</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2978,7 +3155,9 @@
       <c r="D14" t="s">
         <v>407</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2993,7 +3172,9 @@
       <c r="D15" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3008,7 +3189,9 @@
       <c r="D16" t="s">
         <v>409</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3023,7 +3206,9 @@
       <c r="D17" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3038,7 +3223,9 @@
       <c r="D18" t="s">
         <v>411</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3053,7 +3240,9 @@
       <c r="D19" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3068,7 +3257,9 @@
       <c r="D20" t="s">
         <v>413</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3083,7 +3274,9 @@
       <c r="D21" t="s">
         <v>414</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3098,7 +3291,9 @@
       <c r="D22" t="s">
         <v>415</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3113,7 +3308,9 @@
       <c r="D23" t="s">
         <v>416</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3128,7 +3325,9 @@
       <c r="D24" t="s">
         <v>417</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3143,7 +3342,9 @@
       <c r="D25" t="s">
         <v>418</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3158,7 +3359,9 @@
       <c r="D26" t="s">
         <v>419</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3173,7 +3376,9 @@
       <c r="D27" t="s">
         <v>420</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3188,7 +3393,9 @@
       <c r="D28" t="s">
         <v>421</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3203,7 +3410,9 @@
       <c r="D29" t="s">
         <v>422</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3218,7 +3427,9 @@
       <c r="D30" t="s">
         <v>423</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3233,7 +3444,9 @@
       <c r="D31" t="s">
         <v>424</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3248,7 +3461,9 @@
       <c r="D32" t="s">
         <v>425</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3263,7 +3478,9 @@
       <c r="D33" t="s">
         <v>426</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3278,7 +3495,9 @@
       <c r="D34" t="s">
         <v>427</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3293,7 +3512,9 @@
       <c r="D35" t="s">
         <v>428</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3308,7 +3529,9 @@
       <c r="D36" t="s">
         <v>429</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -3323,7 +3546,9 @@
       <c r="D37" t="s">
         <v>430</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3338,7 +3563,9 @@
       <c r="D38" t="s">
         <v>431</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -3353,7 +3580,9 @@
       <c r="D39" t="s">
         <v>432</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3368,7 +3597,23 @@
       <c r="D40">
         <v>4421304</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6">
+        <v>9437597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3377,16 +3622,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D40"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,6 +4219,20 @@
         <v>2008881</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
+++ b/src/produtos/dataset/ECCOLI/Execucoes_MLP_PSO(Eduardo).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EPOCH 2000" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="479">
   <si>
     <t>MLP</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>0.6274683 ± 0.005644346</t>
+  </si>
+  <si>
+    <t>0.6524792 ± 0.002507578</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -2457,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,7 +2540,9 @@
       <c r="D10" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>0.65726150470145694</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2552,7 +2557,9 @@
       <c r="D11" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>0.65897765521988605</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2567,7 +2574,9 @@
       <c r="D12" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>0.67712262846403304</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2582,7 +2591,9 @@
       <c r="D13" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>0.66537336675334602</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2597,7 +2608,9 @@
       <c r="D14" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0.65834845727803104</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2612,7 +2625,9 @@
       <c r="D15" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0.65755236796943595</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2627,7 +2642,9 @@
       <c r="D16" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>0.65311490339743195</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2642,7 +2659,9 @@
       <c r="D17" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.649107859713559</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2657,7 +2676,9 @@
       <c r="D18" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.64666031906704702</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2672,7 +2693,9 @@
       <c r="D19" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>0.64851142525902405</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2687,7 +2710,9 @@
       <c r="D20" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>0.65209965494982203</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2702,7 +2727,9 @@
       <c r="D21" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>0.65391885268871197</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2717,7 +2744,9 @@
       <c r="D22" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>0.65393456231478997</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2732,7 +2761,9 @@
       <c r="D23" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>0.65519299311142198</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2747,7 +2778,9 @@
       <c r="D24" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.65518211988150199</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2762,7 +2795,9 @@
       <c r="D25" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>0.65519948301738895</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2777,7 +2812,9 @@
       <c r="D26" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>0.65638051037396405</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2792,7 +2829,9 @@
       <c r="D27" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>0.65597047640725403</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2807,7 +2846,9 @@
       <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>0.65328719711019101</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2822,7 +2863,9 @@
       <c r="D29" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>0.64837586805822101</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2837,7 +2880,9 @@
       <c r="D30" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>0.64470342923922097</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2852,7 +2897,9 @@
       <c r="D31" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>0.64520149982487596</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2867,7 +2914,9 @@
       <c r="D32" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>0.64732794296070495</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -2882,7 +2931,9 @@
       <c r="D33" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>0.64701035633770099</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2897,7 +2948,9 @@
       <c r="D34" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>0.64696046640571303</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -2912,7 +2965,9 @@
       <c r="D35" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>0.64702063376612495</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2927,7 +2982,9 @@
       <c r="D36" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>0.64537704593607603</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2942,7 +2999,9 @@
       <c r="D37" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>0.64714133115234396</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2957,7 +3016,9 @@
       <c r="D38" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>0.64561822896007603</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2972,7 +3033,9 @@
       <c r="D39" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>0.64644423903662696</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2987,6 +3050,9 @@
       <c r="D40">
         <v>8773643</v>
       </c>
+      <c r="E40">
+        <v>17504526</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
@@ -2997,6 +3063,9 @@
       </c>
       <c r="D41" s="12" t="s">
         <v>469</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
